--- a/ssd/61850_cemig.xlsx
+++ b/ssd/61850_cemig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\util\ssd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E72D2E26-6644-4450-8FBC-FC156CB07468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B392BD-FB5A-4468-B4CE-BC78276ADAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-2850" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39570" yWindow="-3630" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="38" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Prot - 50BF'!$B$1:$I$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'Prot - barra'!$B$1:$I$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Prot - dist'!$B$1:$I$180</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Prot - trafo'!$B$1:$I$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Prot - trafo'!$B$1:$I$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'RDP - disj'!$B$1:$I$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'RDP - LT'!$B$1:$I$146</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'RDP - trafo'!$B$1:$I$93</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5686" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5759" uniqueCount="844">
   <si>
     <t>Log Node</t>
   </si>
@@ -2187,9 +2187,6 @@
   </si>
   <si>
     <t>Prot. 46 - partida neutro</t>
-  </si>
-  <si>
-    <t>Prot. 46 - Trip geral</t>
   </si>
   <si>
     <t>Prot. 46 - Trip fase Vm</t>
@@ -2590,6 +2587,69 @@
   </si>
   <si>
     <t>Sampled Values no barramento de processo - alta prioridade</t>
+  </si>
+  <si>
+    <t>Prot. 67Q - partida geral</t>
+  </si>
+  <si>
+    <t>Prot. 67Q - partida fase Vm</t>
+  </si>
+  <si>
+    <t>Prot. 67Q - partida fase Az</t>
+  </si>
+  <si>
+    <t>Prot. 67Q - partida fase Br</t>
+  </si>
+  <si>
+    <t>Prot. 67Q - partida neutro</t>
+  </si>
+  <si>
+    <t>Prot. 67Q - Trip geral</t>
+  </si>
+  <si>
+    <t>Prot. 67Q - Trip fase Vm</t>
+  </si>
+  <si>
+    <t>Prot. 67Q - Trip fase Az</t>
+  </si>
+  <si>
+    <t>Prot. 67Q - Trip fase Br</t>
+  </si>
+  <si>
+    <t>Prot. 67Q - Trip neutro</t>
+  </si>
+  <si>
+    <t>A_51N_</t>
+  </si>
+  <si>
+    <t>B_51N_</t>
+  </si>
+  <si>
+    <t>A_51G_</t>
+  </si>
+  <si>
+    <t>B_51G_</t>
+  </si>
+  <si>
+    <t>Prot. 51N - Trip geral</t>
+  </si>
+  <si>
+    <t>Prot. 51N - Trip</t>
+  </si>
+  <si>
+    <t>Prot. 51N (segundo estágio) - Trip geral</t>
+  </si>
+  <si>
+    <t>Prot. 51N (segundo estágio) - Trip</t>
+  </si>
+  <si>
+    <t>Enrolamento Baixa - Requisito da distribuição</t>
+  </si>
+  <si>
+    <t>Prot. 51G (TC neutro) - Trip geral</t>
+  </si>
+  <si>
+    <t>Prot. 51G (TC neutro) - Trip</t>
   </si>
 </sst>
 </file>
@@ -2896,14 +2956,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2914,13 +2971,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3283,7 +3343,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE058BF-A06D-4D9C-8F0A-2213F146DA81}">
   <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:I32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3294,7 +3356,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="40" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -3306,7 +3368,7 @@
     </row>
     <row r="3" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="39" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -3318,7 +3380,7 @@
     </row>
     <row r="5" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="38" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -3330,10 +3392,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="36" t="s">
+        <v>775</v>
+      </c>
+      <c r="C7" s="41" t="s">
         <v>776</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>777</v>
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
@@ -3342,10 +3404,10 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="C8" s="41" t="s">
         <v>778</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>779</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
@@ -3354,13 +3416,13 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="36" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>281</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E9" s="42">
         <v>45770</v>
@@ -3370,12 +3432,12 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
@@ -3387,7 +3449,7 @@
     </row>
     <row r="13" spans="2:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
@@ -3399,7 +3461,7 @@
     </row>
     <row r="14" spans="2:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
@@ -3411,10 +3473,10 @@
     </row>
     <row r="15" spans="2:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="33" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
@@ -3425,10 +3487,10 @@
     </row>
     <row r="16" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="33" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
@@ -3439,10 +3501,10 @@
     </row>
     <row r="17" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="33" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -3453,10 +3515,10 @@
     </row>
     <row r="18" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
@@ -3467,7 +3529,7 @@
     </row>
     <row r="20" spans="2:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
@@ -3479,7 +3541,7 @@
     </row>
     <row r="21" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="37" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
@@ -3491,10 +3553,10 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
@@ -3505,10 +3567,10 @@
     </row>
     <row r="23" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="33" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
@@ -3519,10 +3581,10 @@
     </row>
     <row r="24" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
@@ -3533,10 +3595,10 @@
     </row>
     <row r="25" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
@@ -3547,10 +3609,10 @@
     </row>
     <row r="26" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="33" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
@@ -3561,10 +3623,10 @@
     </row>
     <row r="27" spans="2:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
@@ -3575,10 +3637,10 @@
     </row>
     <row r="28" spans="2:9" s="32" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="33" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
@@ -3588,10 +3650,10 @@
     </row>
     <row r="29" spans="2:9" s="32" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="33" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
@@ -3601,10 +3663,10 @@
     </row>
     <row r="30" spans="2:9" s="32" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="33" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
@@ -3614,10 +3676,10 @@
     </row>
     <row r="31" spans="2:9" s="32" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="33" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E31" s="37"/>
       <c r="F31" s="37"/>
@@ -3627,10 +3689,10 @@
     </row>
     <row r="32" spans="2:9" s="32" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
@@ -3640,10 +3702,10 @@
     </row>
     <row r="33" spans="3:9" s="32" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="33" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="37"/>
@@ -3653,10 +3715,10 @@
     </row>
     <row r="34" spans="3:9" s="32" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="33" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
@@ -3666,10 +3728,10 @@
     </row>
     <row r="35" spans="3:9" s="32" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="35" t="s">
+        <v>814</v>
+      </c>
+      <c r="D35" s="37" t="s">
         <v>815</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>816</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="37"/>
@@ -3719,8 +3781,8 @@
   <sheetPr codeName="Plan24"/>
   <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I135" sqref="I135"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3759,7 +3821,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -3778,7 +3840,7 @@
       <c r="C2" s="46">
         <v>1</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="49" t="s">
         <v>193</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3799,7 +3861,7 @@
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
-      <c r="D3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="2" t="s">
         <v>195</v>
       </c>
@@ -3818,7 +3880,7 @@
       <c r="A4" s="47"/>
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
-      <c r="D4" s="56"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="2" t="s">
         <v>196</v>
       </c>
@@ -3837,7 +3899,7 @@
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
-      <c r="D5" s="56"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="2" t="s">
         <v>197</v>
       </c>
@@ -3856,7 +3918,7 @@
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
-      <c r="D6" s="56"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="2" t="s">
         <v>198</v>
       </c>
@@ -3875,7 +3937,7 @@
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -3896,7 +3958,7 @@
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
-      <c r="D8" s="56"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="2" t="s">
         <v>195</v>
       </c>
@@ -3915,7 +3977,7 @@
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
-      <c r="D9" s="56"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="2" t="s">
         <v>196</v>
       </c>
@@ -3934,7 +3996,7 @@
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
-      <c r="D10" s="56"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="2" t="s">
         <v>197</v>
       </c>
@@ -3953,7 +4015,7 @@
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
-      <c r="D11" s="56"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="2" t="s">
         <v>198</v>
       </c>
@@ -3978,7 +4040,7 @@
       <c r="C12" s="46">
         <v>2</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="49" t="s">
         <v>193</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -3999,7 +4061,7 @@
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
-      <c r="D13" s="56"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="2" t="s">
         <v>195</v>
       </c>
@@ -4018,7 +4080,7 @@
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
-      <c r="D14" s="56"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="2" t="s">
         <v>196</v>
       </c>
@@ -4037,7 +4099,7 @@
       <c r="A15" s="47"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
-      <c r="D15" s="56"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="2" t="s">
         <v>197</v>
       </c>
@@ -4056,7 +4118,7 @@
       <c r="A16" s="47"/>
       <c r="B16" s="47"/>
       <c r="C16" s="47"/>
-      <c r="D16" s="56"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="2" t="s">
         <v>198</v>
       </c>
@@ -4075,7 +4137,7 @@
       <c r="A17" s="47"/>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -4096,7 +4158,7 @@
       <c r="A18" s="47"/>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
-      <c r="D18" s="56"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="2" t="s">
         <v>195</v>
       </c>
@@ -4115,7 +4177,7 @@
       <c r="A19" s="47"/>
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
-      <c r="D19" s="56"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="2" t="s">
         <v>196</v>
       </c>
@@ -4134,7 +4196,7 @@
       <c r="A20" s="47"/>
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
-      <c r="D20" s="56"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="2" t="s">
         <v>197</v>
       </c>
@@ -4153,7 +4215,7 @@
       <c r="A21" s="47"/>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
-      <c r="D21" s="56"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="2" t="s">
         <v>198</v>
       </c>
@@ -4178,7 +4240,7 @@
       <c r="C22" s="46">
         <v>3</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="49" t="s">
         <v>193</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -4199,7 +4261,7 @@
       <c r="A23" s="47"/>
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
-      <c r="D23" s="56"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="2" t="s">
         <v>195</v>
       </c>
@@ -4218,7 +4280,7 @@
       <c r="A24" s="47"/>
       <c r="B24" s="47"/>
       <c r="C24" s="47"/>
-      <c r="D24" s="56"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="2" t="s">
         <v>196</v>
       </c>
@@ -4237,7 +4299,7 @@
       <c r="A25" s="47"/>
       <c r="B25" s="47"/>
       <c r="C25" s="47"/>
-      <c r="D25" s="56"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="2" t="s">
         <v>197</v>
       </c>
@@ -4256,7 +4318,7 @@
       <c r="A26" s="47"/>
       <c r="B26" s="47"/>
       <c r="C26" s="47"/>
-      <c r="D26" s="56"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="2" t="s">
         <v>198</v>
       </c>
@@ -4275,7 +4337,7 @@
       <c r="A27" s="47"/>
       <c r="B27" s="47"/>
       <c r="C27" s="47"/>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -4296,7 +4358,7 @@
       <c r="A28" s="47"/>
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
-      <c r="D28" s="56"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="2" t="s">
         <v>195</v>
       </c>
@@ -4315,7 +4377,7 @@
       <c r="A29" s="47"/>
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
-      <c r="D29" s="56"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="2" t="s">
         <v>196</v>
       </c>
@@ -4334,7 +4396,7 @@
       <c r="A30" s="47"/>
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
-      <c r="D30" s="56"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="2" t="s">
         <v>197</v>
       </c>
@@ -4353,7 +4415,7 @@
       <c r="A31" s="47"/>
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
-      <c r="D31" s="56"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="2" t="s">
         <v>198</v>
       </c>
@@ -4378,7 +4440,7 @@
       <c r="C32" s="46">
         <v>4</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="49" t="s">
         <v>193</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -4399,7 +4461,7 @@
       <c r="A33" s="47"/>
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
-      <c r="D33" s="56"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="2" t="s">
         <v>195</v>
       </c>
@@ -4418,7 +4480,7 @@
       <c r="A34" s="47"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
-      <c r="D34" s="56"/>
+      <c r="D34" s="57"/>
       <c r="E34" s="2" t="s">
         <v>196</v>
       </c>
@@ -4437,7 +4499,7 @@
       <c r="A35" s="47"/>
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
-      <c r="D35" s="56"/>
+      <c r="D35" s="57"/>
       <c r="E35" s="2" t="s">
         <v>197</v>
       </c>
@@ -4456,7 +4518,7 @@
       <c r="A36" s="47"/>
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
-      <c r="D36" s="56"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="2" t="s">
         <v>198</v>
       </c>
@@ -4475,7 +4537,7 @@
       <c r="A37" s="47"/>
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
-      <c r="D37" s="55" t="s">
+      <c r="D37" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -4496,7 +4558,7 @@
       <c r="A38" s="47"/>
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
-      <c r="D38" s="56"/>
+      <c r="D38" s="57"/>
       <c r="E38" s="2" t="s">
         <v>195</v>
       </c>
@@ -4515,7 +4577,7 @@
       <c r="A39" s="47"/>
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
-      <c r="D39" s="56"/>
+      <c r="D39" s="57"/>
       <c r="E39" s="2" t="s">
         <v>196</v>
       </c>
@@ -4534,7 +4596,7 @@
       <c r="A40" s="47"/>
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
-      <c r="D40" s="56"/>
+      <c r="D40" s="57"/>
       <c r="E40" s="2" t="s">
         <v>197</v>
       </c>
@@ -4553,7 +4615,7 @@
       <c r="A41" s="47"/>
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
-      <c r="D41" s="56"/>
+      <c r="D41" s="57"/>
       <c r="E41" s="2" t="s">
         <v>198</v>
       </c>
@@ -4578,7 +4640,7 @@
       <c r="C42" s="46">
         <v>5</v>
       </c>
-      <c r="D42" s="55" t="s">
+      <c r="D42" s="49" t="s">
         <v>193</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -4599,7 +4661,7 @@
       <c r="A43" s="47"/>
       <c r="B43" s="47"/>
       <c r="C43" s="47"/>
-      <c r="D43" s="56"/>
+      <c r="D43" s="57"/>
       <c r="E43" s="2" t="s">
         <v>195</v>
       </c>
@@ -4618,7 +4680,7 @@
       <c r="A44" s="47"/>
       <c r="B44" s="47"/>
       <c r="C44" s="47"/>
-      <c r="D44" s="56"/>
+      <c r="D44" s="57"/>
       <c r="E44" s="2" t="s">
         <v>196</v>
       </c>
@@ -4637,7 +4699,7 @@
       <c r="A45" s="47"/>
       <c r="B45" s="47"/>
       <c r="C45" s="47"/>
-      <c r="D45" s="56"/>
+      <c r="D45" s="57"/>
       <c r="E45" s="2" t="s">
         <v>197</v>
       </c>
@@ -4656,7 +4718,7 @@
       <c r="A46" s="47"/>
       <c r="B46" s="47"/>
       <c r="C46" s="47"/>
-      <c r="D46" s="56"/>
+      <c r="D46" s="57"/>
       <c r="E46" s="2" t="s">
         <v>198</v>
       </c>
@@ -4675,7 +4737,7 @@
       <c r="A47" s="47"/>
       <c r="B47" s="47"/>
       <c r="C47" s="47"/>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -4696,7 +4758,7 @@
       <c r="A48" s="47"/>
       <c r="B48" s="47"/>
       <c r="C48" s="47"/>
-      <c r="D48" s="56"/>
+      <c r="D48" s="57"/>
       <c r="E48" s="2" t="s">
         <v>195</v>
       </c>
@@ -4715,7 +4777,7 @@
       <c r="A49" s="47"/>
       <c r="B49" s="47"/>
       <c r="C49" s="47"/>
-      <c r="D49" s="56"/>
+      <c r="D49" s="57"/>
       <c r="E49" s="2" t="s">
         <v>196</v>
       </c>
@@ -4734,7 +4796,7 @@
       <c r="A50" s="47"/>
       <c r="B50" s="47"/>
       <c r="C50" s="47"/>
-      <c r="D50" s="56"/>
+      <c r="D50" s="57"/>
       <c r="E50" s="2" t="s">
         <v>197</v>
       </c>
@@ -4753,7 +4815,7 @@
       <c r="A51" s="47"/>
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
-      <c r="D51" s="56"/>
+      <c r="D51" s="57"/>
       <c r="E51" s="2" t="s">
         <v>198</v>
       </c>
@@ -4778,7 +4840,7 @@
       <c r="C52" s="46">
         <v>1</v>
       </c>
-      <c r="D52" s="55" t="s">
+      <c r="D52" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -4801,7 +4863,7 @@
       <c r="A53" s="47"/>
       <c r="B53" s="47"/>
       <c r="C53" s="47"/>
-      <c r="D53" s="56"/>
+      <c r="D53" s="57"/>
       <c r="E53" s="2" t="s">
         <v>195</v>
       </c>
@@ -4822,7 +4884,7 @@
       <c r="A54" s="47"/>
       <c r="B54" s="47"/>
       <c r="C54" s="47"/>
-      <c r="D54" s="56"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="2" t="s">
         <v>196</v>
       </c>
@@ -4843,7 +4905,7 @@
       <c r="A55" s="47"/>
       <c r="B55" s="47"/>
       <c r="C55" s="47"/>
-      <c r="D55" s="56"/>
+      <c r="D55" s="57"/>
       <c r="E55" s="2" t="s">
         <v>197</v>
       </c>
@@ -4864,7 +4926,7 @@
       <c r="A56" s="48"/>
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
-      <c r="D56" s="57"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="2" t="s">
         <v>198</v>
       </c>
@@ -4891,7 +4953,7 @@
       <c r="C57" s="46">
         <v>1</v>
       </c>
-      <c r="D57" s="55" t="s">
+      <c r="D57" s="49" t="s">
         <v>193</v>
       </c>
       <c r="E57" s="2" t="s">
@@ -4914,7 +4976,7 @@
       <c r="A58" s="47"/>
       <c r="B58" s="47"/>
       <c r="C58" s="47"/>
-      <c r="D58" s="56"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="2" t="s">
         <v>195</v>
       </c>
@@ -4935,7 +4997,7 @@
       <c r="A59" s="47"/>
       <c r="B59" s="47"/>
       <c r="C59" s="47"/>
-      <c r="D59" s="56"/>
+      <c r="D59" s="57"/>
       <c r="E59" s="2" t="s">
         <v>196</v>
       </c>
@@ -4956,7 +5018,7 @@
       <c r="A60" s="47"/>
       <c r="B60" s="47"/>
       <c r="C60" s="47"/>
-      <c r="D60" s="56"/>
+      <c r="D60" s="57"/>
       <c r="E60" s="2" t="s">
         <v>197</v>
       </c>
@@ -4977,7 +5039,7 @@
       <c r="A61" s="47"/>
       <c r="B61" s="47"/>
       <c r="C61" s="47"/>
-      <c r="D61" s="57"/>
+      <c r="D61" s="50"/>
       <c r="E61" s="2" t="s">
         <v>198</v>
       </c>
@@ -4998,7 +5060,7 @@
       <c r="A62" s="47"/>
       <c r="B62" s="47"/>
       <c r="C62" s="47"/>
-      <c r="D62" s="55" t="s">
+      <c r="D62" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -5021,7 +5083,7 @@
       <c r="A63" s="47"/>
       <c r="B63" s="47"/>
       <c r="C63" s="47"/>
-      <c r="D63" s="56"/>
+      <c r="D63" s="57"/>
       <c r="E63" s="2" t="s">
         <v>195</v>
       </c>
@@ -5042,7 +5104,7 @@
       <c r="A64" s="47"/>
       <c r="B64" s="47"/>
       <c r="C64" s="47"/>
-      <c r="D64" s="56"/>
+      <c r="D64" s="57"/>
       <c r="E64" s="2" t="s">
         <v>196</v>
       </c>
@@ -5063,7 +5125,7 @@
       <c r="A65" s="47"/>
       <c r="B65" s="47"/>
       <c r="C65" s="47"/>
-      <c r="D65" s="56"/>
+      <c r="D65" s="57"/>
       <c r="E65" s="2" t="s">
         <v>197</v>
       </c>
@@ -5084,7 +5146,7 @@
       <c r="A66" s="48"/>
       <c r="B66" s="48"/>
       <c r="C66" s="48"/>
-      <c r="D66" s="57"/>
+      <c r="D66" s="50"/>
       <c r="E66" s="2" t="s">
         <v>198</v>
       </c>
@@ -5132,7 +5194,7 @@
       <c r="A68" s="47"/>
       <c r="B68" s="47"/>
       <c r="C68" s="47"/>
-      <c r="D68" s="55" t="s">
+      <c r="D68" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -5153,7 +5215,7 @@
       <c r="A69" s="47"/>
       <c r="B69" s="47"/>
       <c r="C69" s="47"/>
-      <c r="D69" s="57"/>
+      <c r="D69" s="50"/>
       <c r="E69" s="2" t="s">
         <v>198</v>
       </c>
@@ -5178,7 +5240,7 @@
       <c r="C70" s="46">
         <v>1</v>
       </c>
-      <c r="D70" s="55" t="s">
+      <c r="D70" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -5199,7 +5261,7 @@
       <c r="A71" s="47"/>
       <c r="B71" s="47"/>
       <c r="C71" s="47"/>
-      <c r="D71" s="56"/>
+      <c r="D71" s="57"/>
       <c r="E71" s="2" t="s">
         <v>195</v>
       </c>
@@ -5218,7 +5280,7 @@
       <c r="A72" s="47"/>
       <c r="B72" s="47"/>
       <c r="C72" s="47"/>
-      <c r="D72" s="56"/>
+      <c r="D72" s="57"/>
       <c r="E72" s="2" t="s">
         <v>196</v>
       </c>
@@ -5237,7 +5299,7 @@
       <c r="A73" s="47"/>
       <c r="B73" s="47"/>
       <c r="C73" s="47"/>
-      <c r="D73" s="56"/>
+      <c r="D73" s="57"/>
       <c r="E73" s="2" t="s">
         <v>197</v>
       </c>
@@ -5256,7 +5318,7 @@
       <c r="A74" s="48"/>
       <c r="B74" s="48"/>
       <c r="C74" s="48"/>
-      <c r="D74" s="57"/>
+      <c r="D74" s="50"/>
       <c r="E74" s="2" t="s">
         <v>198</v>
       </c>
@@ -5281,7 +5343,7 @@
       <c r="C75" s="46">
         <v>1</v>
       </c>
-      <c r="D75" s="55" t="s">
+      <c r="D75" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -5304,7 +5366,7 @@
       <c r="A76" s="47"/>
       <c r="B76" s="47"/>
       <c r="C76" s="47"/>
-      <c r="D76" s="56"/>
+      <c r="D76" s="57"/>
       <c r="E76" s="2" t="s">
         <v>195</v>
       </c>
@@ -5325,7 +5387,7 @@
       <c r="A77" s="47"/>
       <c r="B77" s="47"/>
       <c r="C77" s="47"/>
-      <c r="D77" s="56"/>
+      <c r="D77" s="57"/>
       <c r="E77" s="2" t="s">
         <v>196</v>
       </c>
@@ -5346,7 +5408,7 @@
       <c r="A78" s="47"/>
       <c r="B78" s="47"/>
       <c r="C78" s="47"/>
-      <c r="D78" s="56"/>
+      <c r="D78" s="57"/>
       <c r="E78" s="2" t="s">
         <v>197</v>
       </c>
@@ -5367,7 +5429,7 @@
       <c r="A79" s="48"/>
       <c r="B79" s="48"/>
       <c r="C79" s="48"/>
-      <c r="D79" s="57"/>
+      <c r="D79" s="50"/>
       <c r="E79" s="2" t="s">
         <v>198</v>
       </c>
@@ -5407,7 +5469,7 @@
         <v>103</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>701</v>
+        <v>823</v>
       </c>
       <c r="I80" s="12"/>
     </row>
@@ -5426,7 +5488,7 @@
         <v>103</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>702</v>
+        <v>824</v>
       </c>
       <c r="I81" s="12"/>
     </row>
@@ -5445,7 +5507,7 @@
         <v>103</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>703</v>
+        <v>825</v>
       </c>
       <c r="I82" s="12"/>
     </row>
@@ -5464,7 +5526,7 @@
         <v>103</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>704</v>
+        <v>826</v>
       </c>
       <c r="I83" s="12"/>
     </row>
@@ -5483,7 +5545,7 @@
         <v>103</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>705</v>
+        <v>827</v>
       </c>
       <c r="I84" s="12"/>
     </row>
@@ -5504,7 +5566,7 @@
         <v>570</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>706</v>
+        <v>828</v>
       </c>
       <c r="I85" s="12"/>
     </row>
@@ -5523,7 +5585,7 @@
         <v>103</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>707</v>
+        <v>829</v>
       </c>
       <c r="I86" s="12"/>
     </row>
@@ -5542,7 +5604,7 @@
         <v>103</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>708</v>
+        <v>830</v>
       </c>
       <c r="I87" s="12"/>
     </row>
@@ -5561,7 +5623,7 @@
         <v>103</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>709</v>
+        <v>831</v>
       </c>
       <c r="I88" s="12"/>
     </row>
@@ -5580,7 +5642,7 @@
         <v>103</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>710</v>
+        <v>832</v>
       </c>
       <c r="I89" s="12"/>
     </row>
@@ -5594,7 +5656,7 @@
       <c r="C90" s="46">
         <v>1</v>
       </c>
-      <c r="D90" s="55" t="s">
+      <c r="D90" s="49" t="s">
         <v>193</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -5615,7 +5677,7 @@
       <c r="A91" s="47"/>
       <c r="B91" s="47"/>
       <c r="C91" s="47"/>
-      <c r="D91" s="56"/>
+      <c r="D91" s="57"/>
       <c r="E91" s="2" t="s">
         <v>195</v>
       </c>
@@ -5634,7 +5696,7 @@
       <c r="A92" s="47"/>
       <c r="B92" s="47"/>
       <c r="C92" s="47"/>
-      <c r="D92" s="56"/>
+      <c r="D92" s="57"/>
       <c r="E92" s="2" t="s">
         <v>196</v>
       </c>
@@ -5653,7 +5715,7 @@
       <c r="A93" s="47"/>
       <c r="B93" s="47"/>
       <c r="C93" s="47"/>
-      <c r="D93" s="56"/>
+      <c r="D93" s="57"/>
       <c r="E93" s="2" t="s">
         <v>197</v>
       </c>
@@ -5672,7 +5734,7 @@
       <c r="A94" s="47"/>
       <c r="B94" s="47"/>
       <c r="C94" s="47"/>
-      <c r="D94" s="55" t="s">
+      <c r="D94" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E94" s="2" t="s">
@@ -5693,7 +5755,7 @@
       <c r="A95" s="47"/>
       <c r="B95" s="47"/>
       <c r="C95" s="47"/>
-      <c r="D95" s="56"/>
+      <c r="D95" s="57"/>
       <c r="E95" s="2" t="s">
         <v>195</v>
       </c>
@@ -5712,7 +5774,7 @@
       <c r="A96" s="47"/>
       <c r="B96" s="47"/>
       <c r="C96" s="47"/>
-      <c r="D96" s="56"/>
+      <c r="D96" s="57"/>
       <c r="E96" s="2" t="s">
         <v>196</v>
       </c>
@@ -5731,7 +5793,7 @@
       <c r="A97" s="47"/>
       <c r="B97" s="47"/>
       <c r="C97" s="47"/>
-      <c r="D97" s="56"/>
+      <c r="D97" s="57"/>
       <c r="E97" s="2" t="s">
         <v>197</v>
       </c>
@@ -5934,7 +5996,7 @@
       <c r="C106" s="46">
         <v>1</v>
       </c>
-      <c r="D106" s="55" t="s">
+      <c r="D106" s="49" t="s">
         <v>193</v>
       </c>
       <c r="E106" s="2" t="s">
@@ -5943,7 +6005,9 @@
       <c r="F106" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G106" s="3"/>
+      <c r="G106" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="H106" s="2" t="s">
         <v>635</v>
       </c>
@@ -5955,14 +6019,16 @@
       <c r="A107" s="47"/>
       <c r="B107" s="47"/>
       <c r="C107" s="47"/>
-      <c r="D107" s="56"/>
+      <c r="D107" s="57"/>
       <c r="E107" s="2" t="s">
         <v>195</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G107" s="3"/>
+      <c r="G107" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="H107" s="2" t="s">
         <v>636</v>
       </c>
@@ -5974,14 +6040,16 @@
       <c r="A108" s="47"/>
       <c r="B108" s="47"/>
       <c r="C108" s="47"/>
-      <c r="D108" s="56"/>
+      <c r="D108" s="57"/>
       <c r="E108" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G108" s="3"/>
+      <c r="G108" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="H108" s="2" t="s">
         <v>637</v>
       </c>
@@ -5993,14 +6061,16 @@
       <c r="A109" s="47"/>
       <c r="B109" s="47"/>
       <c r="C109" s="47"/>
-      <c r="D109" s="56"/>
+      <c r="D109" s="57"/>
       <c r="E109" s="2" t="s">
         <v>197</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G109" s="3"/>
+      <c r="G109" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="H109" s="2" t="s">
         <v>638</v>
       </c>
@@ -6012,7 +6082,7 @@
       <c r="A110" s="47"/>
       <c r="B110" s="47"/>
       <c r="C110" s="47"/>
-      <c r="D110" s="55" t="s">
+      <c r="D110" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E110" s="2" t="s">
@@ -6021,7 +6091,9 @@
       <c r="F110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G110" s="3"/>
+      <c r="G110" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="H110" s="2" t="s">
         <v>639</v>
       </c>
@@ -6033,14 +6105,16 @@
       <c r="A111" s="47"/>
       <c r="B111" s="47"/>
       <c r="C111" s="47"/>
-      <c r="D111" s="56"/>
+      <c r="D111" s="57"/>
       <c r="E111" s="2" t="s">
         <v>195</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G111" s="3"/>
+      <c r="G111" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="H111" s="2" t="s">
         <v>640</v>
       </c>
@@ -6052,14 +6126,16 @@
       <c r="A112" s="47"/>
       <c r="B112" s="47"/>
       <c r="C112" s="47"/>
-      <c r="D112" s="56"/>
+      <c r="D112" s="57"/>
       <c r="E112" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G112" s="3"/>
+      <c r="G112" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="H112" s="2" t="s">
         <v>641</v>
       </c>
@@ -6071,14 +6147,16 @@
       <c r="A113" s="47"/>
       <c r="B113" s="47"/>
       <c r="C113" s="47"/>
-      <c r="D113" s="56"/>
+      <c r="D113" s="57"/>
       <c r="E113" s="2" t="s">
         <v>197</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G113" s="3"/>
+      <c r="G113" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="H113" s="2" t="s">
         <v>642</v>
       </c>
@@ -6725,13 +6803,13 @@
       <c r="I139" s="2"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="49" t="s">
+      <c r="A140" s="54" t="s">
         <v>598</v>
       </c>
-      <c r="B140" s="49" t="s">
+      <c r="B140" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="C140" s="49">
+      <c r="C140" s="54">
         <v>1</v>
       </c>
       <c r="D140" s="25" t="s">
@@ -6754,9 +6832,9 @@
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="50"/>
-      <c r="B141" s="50"/>
-      <c r="C141" s="50"/>
+      <c r="A141" s="56"/>
+      <c r="B141" s="56"/>
+      <c r="C141" s="56"/>
       <c r="D141" s="25" t="s">
         <v>400</v>
       </c>
@@ -6777,9 +6855,9 @@
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="51"/>
-      <c r="B142" s="51"/>
-      <c r="C142" s="51"/>
+      <c r="A142" s="55"/>
+      <c r="B142" s="55"/>
+      <c r="C142" s="55"/>
       <c r="D142" s="25" t="s">
         <v>401</v>
       </c>
@@ -6800,13 +6878,13 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="49" t="s">
+      <c r="A143" s="54" t="s">
         <v>598</v>
       </c>
-      <c r="B143" s="49" t="s">
+      <c r="B143" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="C143" s="49">
+      <c r="C143" s="54">
         <v>2</v>
       </c>
       <c r="D143" s="25" t="s">
@@ -6829,9 +6907,9 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="50"/>
-      <c r="B144" s="50"/>
-      <c r="C144" s="50"/>
+      <c r="A144" s="56"/>
+      <c r="B144" s="56"/>
+      <c r="C144" s="56"/>
       <c r="D144" s="25" t="s">
         <v>400</v>
       </c>
@@ -6852,9 +6930,9 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="51"/>
-      <c r="B145" s="51"/>
-      <c r="C145" s="51"/>
+      <c r="A145" s="55"/>
+      <c r="B145" s="55"/>
+      <c r="C145" s="55"/>
       <c r="D145" s="25" t="s">
         <v>401</v>
       </c>
@@ -6895,7 +6973,7 @@
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I146" s="2"/>
     </row>
@@ -6904,7 +6982,7 @@
       <c r="B147" s="47"/>
       <c r="C147" s="47"/>
       <c r="D147" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>5</v>
@@ -6916,7 +6994,7 @@
         <v>570</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I147" s="2"/>
     </row>
@@ -6925,7 +7003,7 @@
       <c r="B148" s="47"/>
       <c r="C148" s="47"/>
       <c r="D148" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>5</v>
@@ -6937,7 +7015,7 @@
         <v>570</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I148" s="2"/>
     </row>
@@ -6946,7 +7024,7 @@
       <c r="B149" s="48"/>
       <c r="C149" s="48"/>
       <c r="D149" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>5</v>
@@ -6958,7 +7036,7 @@
         <v>570</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I149" s="2"/>
     </row>
@@ -7011,16 +7089,16 @@
       <c r="I151" s="2"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="49" t="s">
+      <c r="A152" s="54" t="s">
         <v>580</v>
       </c>
-      <c r="B152" s="49" t="s">
+      <c r="B152" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="C152" s="49">
+      <c r="C152" s="54">
         <v>1</v>
       </c>
-      <c r="D152" s="52" t="s">
+      <c r="D152" s="51" t="s">
         <v>226</v>
       </c>
       <c r="E152" s="25" t="s">
@@ -7040,10 +7118,10 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="50"/>
-      <c r="B153" s="50"/>
-      <c r="C153" s="50"/>
-      <c r="D153" s="53"/>
+      <c r="A153" s="56"/>
+      <c r="B153" s="56"/>
+      <c r="C153" s="56"/>
+      <c r="D153" s="52"/>
       <c r="E153" s="25" t="s">
         <v>195</v>
       </c>
@@ -7061,10 +7139,10 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="50"/>
-      <c r="B154" s="50"/>
-      <c r="C154" s="50"/>
-      <c r="D154" s="53"/>
+      <c r="A154" s="56"/>
+      <c r="B154" s="56"/>
+      <c r="C154" s="56"/>
+      <c r="D154" s="52"/>
       <c r="E154" s="25" t="s">
         <v>196</v>
       </c>
@@ -7082,10 +7160,10 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="51"/>
-      <c r="B155" s="51"/>
-      <c r="C155" s="51"/>
-      <c r="D155" s="53"/>
+      <c r="A155" s="55"/>
+      <c r="B155" s="55"/>
+      <c r="C155" s="55"/>
+      <c r="D155" s="52"/>
       <c r="E155" s="25" t="s">
         <v>197</v>
       </c>
@@ -7103,16 +7181,16 @@
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="49" t="s">
+      <c r="A156" s="54" t="s">
         <v>580</v>
       </c>
-      <c r="B156" s="49" t="s">
+      <c r="B156" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="C156" s="49">
+      <c r="C156" s="54">
         <v>2</v>
       </c>
-      <c r="D156" s="52" t="s">
+      <c r="D156" s="51" t="s">
         <v>226</v>
       </c>
       <c r="E156" s="25" t="s">
@@ -7132,10 +7210,10 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="50"/>
-      <c r="B157" s="50"/>
-      <c r="C157" s="50"/>
-      <c r="D157" s="53"/>
+      <c r="A157" s="56"/>
+      <c r="B157" s="56"/>
+      <c r="C157" s="56"/>
+      <c r="D157" s="52"/>
       <c r="E157" s="25" t="s">
         <v>195</v>
       </c>
@@ -7153,10 +7231,10 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="50"/>
-      <c r="B158" s="50"/>
-      <c r="C158" s="50"/>
-      <c r="D158" s="53"/>
+      <c r="A158" s="56"/>
+      <c r="B158" s="56"/>
+      <c r="C158" s="56"/>
+      <c r="D158" s="52"/>
       <c r="E158" s="25" t="s">
         <v>196</v>
       </c>
@@ -7174,10 +7252,10 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="51"/>
-      <c r="B159" s="51"/>
-      <c r="C159" s="51"/>
-      <c r="D159" s="53"/>
+      <c r="A159" s="55"/>
+      <c r="B159" s="55"/>
+      <c r="C159" s="55"/>
+      <c r="D159" s="52"/>
       <c r="E159" s="25" t="s">
         <v>197</v>
       </c>
@@ -7196,7 +7274,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>306</v>
@@ -7217,7 +7295,7 @@
         <v>570</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I160" s="2"/>
     </row>
@@ -7249,13 +7327,13 @@
       <c r="I161" s="29"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="49" t="s">
+      <c r="A162" s="54" t="s">
         <v>647</v>
       </c>
-      <c r="B162" s="49" t="s">
+      <c r="B162" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="C162" s="49">
+      <c r="C162" s="54">
         <v>1</v>
       </c>
       <c r="D162" s="25" t="s">
@@ -7278,9 +7356,9 @@
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="51"/>
-      <c r="B163" s="51"/>
-      <c r="C163" s="51"/>
+      <c r="A163" s="55"/>
+      <c r="B163" s="55"/>
+      <c r="C163" s="55"/>
       <c r="D163" s="25" t="s">
         <v>261</v>
       </c>
@@ -7301,13 +7379,13 @@
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="49" t="s">
+      <c r="A164" s="54" t="s">
         <v>647</v>
       </c>
-      <c r="B164" s="49" t="s">
+      <c r="B164" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="C164" s="49">
+      <c r="C164" s="54">
         <v>2</v>
       </c>
       <c r="D164" s="25" t="s">
@@ -7330,9 +7408,9 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="51"/>
-      <c r="B165" s="51"/>
-      <c r="C165" s="51"/>
+      <c r="A165" s="55"/>
+      <c r="B165" s="55"/>
+      <c r="C165" s="55"/>
       <c r="D165" s="25" t="s">
         <v>261</v>
       </c>
@@ -7415,6 +7493,12 @@
   </sheetData>
   <autoFilter ref="B1:I180" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <mergeCells count="116">
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="C42:C51"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="A52:A56"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="C2:C11"/>
@@ -7425,9 +7509,6 @@
     <mergeCell ref="C12:C21"/>
     <mergeCell ref="D12:D16"/>
     <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
     <mergeCell ref="A22:A31"/>
     <mergeCell ref="B22:B31"/>
     <mergeCell ref="C22:C31"/>
@@ -7438,17 +7519,6 @@
     <mergeCell ref="C32:C41"/>
     <mergeCell ref="D32:D36"/>
     <mergeCell ref="D37:D41"/>
-    <mergeCell ref="A57:A66"/>
-    <mergeCell ref="B57:B66"/>
-    <mergeCell ref="C57:C66"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="C42:C51"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="A52:A56"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="C52:C56"/>
     <mergeCell ref="D52:D56"/>
@@ -7460,6 +7530,15 @@
     <mergeCell ref="C70:C74"/>
     <mergeCell ref="D90:D93"/>
     <mergeCell ref="D94:D97"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="A57:A66"/>
+    <mergeCell ref="B57:B66"/>
+    <mergeCell ref="C57:C66"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="D62:D66"/>
     <mergeCell ref="A114:A116"/>
     <mergeCell ref="B114:B116"/>
     <mergeCell ref="C114:C116"/>
@@ -7469,7 +7548,6 @@
     <mergeCell ref="D75:D79"/>
     <mergeCell ref="D80:D84"/>
     <mergeCell ref="D85:D89"/>
-    <mergeCell ref="D70:D74"/>
     <mergeCell ref="A98:A105"/>
     <mergeCell ref="B98:B105"/>
     <mergeCell ref="B150:B151"/>
@@ -7554,8 +7632,8 @@
   <sheetPr codeName="Plan25"/>
   <dimension ref="A1:I241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7594,7 +7672,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -10772,7 +10850,7 @@
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I124" s="2"/>
     </row>
@@ -10797,7 +10875,7 @@
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="12" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I125" s="2"/>
     </row>
@@ -10822,7 +10900,7 @@
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="12" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I126" s="2"/>
     </row>
@@ -10847,7 +10925,7 @@
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I127" s="2"/>
     </row>
@@ -11337,7 +11415,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -11348,7 +11426,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>235</v>
@@ -11566,7 +11644,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -11746,7 +11824,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -11771,7 +11849,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -11796,7 +11874,7 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -11993,7 +12071,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -12064,7 +12142,7 @@
         <v>63</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>66</v>
@@ -12151,7 +12229,7 @@
       <c r="B8" s="72"/>
       <c r="C8" s="72"/>
       <c r="D8" s="21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>28</v>
@@ -12163,7 +12241,7 @@
         <v>570</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>93</v>
@@ -12206,7 +12284,7 @@
         <v>63</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>32</v>
@@ -12229,7 +12307,7 @@
         <v>63</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>34</v>
@@ -12252,7 +12330,7 @@
         <v>63</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>59</v>
@@ -12863,7 +12941,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>259</v>
@@ -12881,7 +12959,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>296</v>
@@ -12892,7 +12970,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>259</v>
@@ -12910,7 +12988,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>297</v>
@@ -12919,7 +12997,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>259</v>
@@ -12937,16 +13015,16 @@
         <v>11</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>259</v>
@@ -12964,10 +13042,10 @@
         <v>11</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -13071,7 +13149,7 @@
       <c r="A45" s="47"/>
       <c r="B45" s="47"/>
       <c r="C45" s="47"/>
-      <c r="D45" s="55" t="s">
+      <c r="D45" s="49" t="s">
         <v>280</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -13092,7 +13170,7 @@
       <c r="A46" s="47"/>
       <c r="B46" s="47"/>
       <c r="C46" s="47"/>
-      <c r="D46" s="56"/>
+      <c r="D46" s="57"/>
       <c r="E46" s="2" t="s">
         <v>278</v>
       </c>
@@ -13111,7 +13189,7 @@
       <c r="A47" s="47"/>
       <c r="B47" s="47"/>
       <c r="C47" s="47"/>
-      <c r="D47" s="57"/>
+      <c r="D47" s="50"/>
       <c r="E47" s="2" t="s">
         <v>279</v>
       </c>
@@ -13130,7 +13208,7 @@
       <c r="A48" s="47"/>
       <c r="B48" s="47"/>
       <c r="C48" s="47"/>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="49" t="s">
         <v>281</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -13151,7 +13229,7 @@
       <c r="A49" s="47"/>
       <c r="B49" s="47"/>
       <c r="C49" s="47"/>
-      <c r="D49" s="56"/>
+      <c r="D49" s="57"/>
       <c r="E49" s="2" t="s">
         <v>278</v>
       </c>
@@ -13170,7 +13248,7 @@
       <c r="A50" s="47"/>
       <c r="B50" s="47"/>
       <c r="C50" s="47"/>
-      <c r="D50" s="57"/>
+      <c r="D50" s="50"/>
       <c r="E50" s="2" t="s">
         <v>279</v>
       </c>
@@ -13331,7 +13409,7 @@
       <c r="A57" s="47"/>
       <c r="B57" s="47"/>
       <c r="C57" s="47"/>
-      <c r="D57" s="55" t="s">
+      <c r="D57" s="49" t="s">
         <v>280</v>
       </c>
       <c r="E57" s="2" t="s">
@@ -13352,7 +13430,7 @@
       <c r="A58" s="47"/>
       <c r="B58" s="47"/>
       <c r="C58" s="47"/>
-      <c r="D58" s="56"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="2" t="s">
         <v>278</v>
       </c>
@@ -13371,7 +13449,7 @@
       <c r="A59" s="47"/>
       <c r="B59" s="47"/>
       <c r="C59" s="47"/>
-      <c r="D59" s="57"/>
+      <c r="D59" s="50"/>
       <c r="E59" s="2" t="s">
         <v>279</v>
       </c>
@@ -13390,7 +13468,7 @@
       <c r="A60" s="47"/>
       <c r="B60" s="47"/>
       <c r="C60" s="47"/>
-      <c r="D60" s="55" t="s">
+      <c r="D60" s="49" t="s">
         <v>281</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -13411,7 +13489,7 @@
       <c r="A61" s="47"/>
       <c r="B61" s="47"/>
       <c r="C61" s="47"/>
-      <c r="D61" s="56"/>
+      <c r="D61" s="57"/>
       <c r="E61" s="2" t="s">
         <v>278</v>
       </c>
@@ -13430,7 +13508,7 @@
       <c r="A62" s="47"/>
       <c r="B62" s="47"/>
       <c r="C62" s="47"/>
-      <c r="D62" s="57"/>
+      <c r="D62" s="50"/>
       <c r="E62" s="2" t="s">
         <v>279</v>
       </c>
@@ -13591,7 +13669,7 @@
       <c r="A69" s="47"/>
       <c r="B69" s="47"/>
       <c r="C69" s="47"/>
-      <c r="D69" s="55" t="s">
+      <c r="D69" s="49" t="s">
         <v>280</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -13612,7 +13690,7 @@
       <c r="A70" s="47"/>
       <c r="B70" s="47"/>
       <c r="C70" s="47"/>
-      <c r="D70" s="56"/>
+      <c r="D70" s="57"/>
       <c r="E70" s="2" t="s">
         <v>278</v>
       </c>
@@ -13631,7 +13709,7 @@
       <c r="A71" s="47"/>
       <c r="B71" s="47"/>
       <c r="C71" s="47"/>
-      <c r="D71" s="57"/>
+      <c r="D71" s="50"/>
       <c r="E71" s="2" t="s">
         <v>279</v>
       </c>
@@ -13650,7 +13728,7 @@
       <c r="A72" s="47"/>
       <c r="B72" s="47"/>
       <c r="C72" s="47"/>
-      <c r="D72" s="55" t="s">
+      <c r="D72" s="49" t="s">
         <v>281</v>
       </c>
       <c r="E72" s="2" t="s">
@@ -13671,7 +13749,7 @@
       <c r="A73" s="47"/>
       <c r="B73" s="47"/>
       <c r="C73" s="47"/>
-      <c r="D73" s="56"/>
+      <c r="D73" s="57"/>
       <c r="E73" s="2" t="s">
         <v>278</v>
       </c>
@@ -13690,7 +13768,7 @@
       <c r="A74" s="47"/>
       <c r="B74" s="47"/>
       <c r="C74" s="47"/>
-      <c r="D74" s="57"/>
+      <c r="D74" s="50"/>
       <c r="E74" s="2" t="s">
         <v>279</v>
       </c>
@@ -13753,7 +13831,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>306</v>
@@ -13774,7 +13852,7 @@
         <v>570</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>107</v>
@@ -13782,7 +13860,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>306</v>
@@ -13803,7 +13881,7 @@
         <v>570</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>108</v>
@@ -13811,7 +13889,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>306</v>
@@ -13832,7 +13910,7 @@
         <v>570</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>109</v>
@@ -13840,7 +13918,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>293</v>
@@ -13861,15 +13939,15 @@
         <v>103</v>
       </c>
       <c r="H80" s="24" t="s">
+        <v>723</v>
+      </c>
+      <c r="I80" s="24" t="s">
         <v>724</v>
-      </c>
-      <c r="I80" s="24" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>293</v>
@@ -13890,10 +13968,10 @@
         <v>103</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -13959,8 +14037,8 @@
   <sheetPr codeName="Plan27"/>
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13999,7 +14077,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -14519,7 +14597,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B23" s="46" t="s">
         <v>132</v>
@@ -14549,7 +14627,7 @@
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
       <c r="D24" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>28</v>
@@ -14561,7 +14639,7 @@
         <v>570</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -14615,7 +14693,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>259</v>
@@ -14633,16 +14711,16 @@
         <v>11</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>99</v>
@@ -14669,7 +14747,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="64" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B29" s="46" t="s">
         <v>240</v>
@@ -14688,7 +14766,7 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -14697,7 +14775,7 @@
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
       <c r="D30" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>5</v>
@@ -14709,7 +14787,7 @@
         <v>570</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -14718,7 +14796,7 @@
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
       <c r="D31" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>5</v>
@@ -14730,7 +14808,7 @@
         <v>570</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -14739,7 +14817,7 @@
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
       <c r="D32" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>5</v>
@@ -14751,13 +14829,13 @@
         <v>570</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>259</v>
@@ -14775,7 +14853,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>292</v>
@@ -14784,7 +14862,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B34" s="26" t="s">
         <v>259</v>
@@ -14802,13 +14880,13 @@
         <v>11</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H34" s="25" t="s">
+        <v>761</v>
+      </c>
+      <c r="I34" s="25" t="s">
         <v>762</v>
-      </c>
-      <c r="I34" s="25" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -14995,7 +15073,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A9" sqref="A9:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15034,7 +15112,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -15066,13 +15144,13 @@
         <v>570</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>259</v>
@@ -15090,16 +15168,16 @@
         <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>259</v>
@@ -15117,10 +15195,10 @@
         <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -15144,7 +15222,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>426</v>
@@ -15171,16 +15249,16 @@
         <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>259</v>
@@ -15198,18 +15276,18 @@
         <v>11</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H7" s="21" t="s">
+        <v>750</v>
+      </c>
+      <c r="I7" s="21" t="s">
         <v>751</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>259</v>
@@ -15227,7 +15305,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>427</v>
@@ -15328,7 +15406,7 @@
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="49" t="s">
         <v>280</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -15347,7 +15425,7 @@
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
-      <c r="D14" s="56"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="2" t="s">
         <v>278</v>
       </c>
@@ -15364,7 +15442,7 @@
       <c r="A15" s="47"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
-      <c r="D15" s="57"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="2" t="s">
         <v>279</v>
       </c>
@@ -15381,7 +15459,7 @@
       <c r="A16" s="47"/>
       <c r="B16" s="47"/>
       <c r="C16" s="47"/>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="49" t="s">
         <v>281</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -15400,7 +15478,7 @@
       <c r="A17" s="47"/>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
-      <c r="D17" s="56"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="2" t="s">
         <v>278</v>
       </c>
@@ -15417,7 +15495,7 @@
       <c r="A18" s="47"/>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
-      <c r="D18" s="57"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="2" t="s">
         <v>279</v>
       </c>
@@ -15474,7 +15552,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>306</v>
@@ -15495,13 +15573,13 @@
         <v>570</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>293</v>
@@ -15522,10 +15600,10 @@
         <v>103</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -15563,7 +15641,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A11" sqref="A11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15602,7 +15680,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -15776,7 +15854,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B9" s="46" t="s">
         <v>132</v>
@@ -15797,7 +15875,7 @@
         <v>103</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -15806,7 +15884,7 @@
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
       <c r="D10" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -15818,7 +15896,7 @@
         <v>570</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -15845,7 +15923,7 @@
         <v>103</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -15866,13 +15944,13 @@
         <v>103</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>259</v>
@@ -15890,16 +15968,16 @@
         <v>11</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>99</v>
@@ -15920,7 +15998,7 @@
         <v>570</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -16142,7 +16220,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -16153,7 +16231,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>259</v>
@@ -16171,10 +16249,10 @@
         <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -16199,7 +16277,7 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -16218,7 +16296,7 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -16237,7 +16315,7 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -16266,7 +16344,7 @@
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="49" t="s">
         <v>280</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -16285,7 +16363,7 @@
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
-      <c r="D8" s="56"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="2" t="s">
         <v>278</v>
       </c>
@@ -16302,7 +16380,7 @@
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
-      <c r="D9" s="57"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="2" t="s">
         <v>279</v>
       </c>
@@ -16319,7 +16397,7 @@
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="49" t="s">
         <v>281</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -16330,7 +16408,7 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -16338,7 +16416,7 @@
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
-      <c r="D11" s="56"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="2" t="s">
         <v>278</v>
       </c>
@@ -16347,7 +16425,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -16355,7 +16433,7 @@
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
-      <c r="D12" s="57"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="2" t="s">
         <v>279</v>
       </c>
@@ -16364,7 +16442,7 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -16385,7 +16463,7 @@
         <v>570</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -16412,7 +16490,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>306</v>
@@ -16433,13 +16511,13 @@
         <v>570</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>306</v>
@@ -16460,13 +16538,13 @@
         <v>570</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>306</v>
@@ -16487,7 +16565,7 @@
         <v>570</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -16565,7 +16643,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -16576,7 +16654,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>192</v>
@@ -16584,7 +16662,7 @@
       <c r="C2" s="46">
         <v>1</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="49" t="s">
         <v>193</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -16605,7 +16683,7 @@
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
-      <c r="D3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="2" t="s">
         <v>195</v>
       </c>
@@ -16624,7 +16702,7 @@
       <c r="A4" s="47"/>
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
-      <c r="D4" s="56"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="2" t="s">
         <v>196</v>
       </c>
@@ -16643,7 +16721,7 @@
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
-      <c r="D5" s="56"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="2" t="s">
         <v>197</v>
       </c>
@@ -16662,7 +16740,7 @@
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -16683,7 +16761,7 @@
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
-      <c r="D7" s="56"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="2" t="s">
         <v>195</v>
       </c>
@@ -16702,7 +16780,7 @@
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
-      <c r="D8" s="56"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="2" t="s">
         <v>196</v>
       </c>
@@ -16721,7 +16799,7 @@
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
-      <c r="D9" s="56"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="2" t="s">
         <v>197</v>
       </c>
@@ -16737,16 +16815,16 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="54" t="s">
         <v>580</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="54">
         <v>1</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="51" t="s">
         <v>226</v>
       </c>
       <c r="E10" s="25" t="s">
@@ -16759,17 +16837,17 @@
         <v>569</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="53"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="25" t="s">
         <v>195</v>
       </c>
@@ -16781,14 +16859,14 @@
         <v>581</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="53"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="25" t="s">
         <v>196</v>
       </c>
@@ -16800,14 +16878,14 @@
         <v>581</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="54"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="25" t="s">
         <v>197</v>
       </c>
@@ -16819,20 +16897,20 @@
         <v>581</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="54" t="s">
         <v>580</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="54">
         <v>2</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="51" t="s">
         <v>226</v>
       </c>
       <c r="E14" s="25" t="s">
@@ -16845,17 +16923,17 @@
         <v>569</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="53"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="25" t="s">
         <v>195</v>
       </c>
@@ -16867,14 +16945,14 @@
         <v>581</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="53"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="25" t="s">
         <v>196</v>
       </c>
@@ -16886,14 +16964,14 @@
         <v>581</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="54"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="25" t="s">
         <v>197</v>
       </c>
@@ -16905,7 +16983,7 @@
         <v>581</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -16947,8 +17025,8 @@
   <sheetPr codeName="Plan18"/>
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16987,7 +17065,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -18727,7 +18805,7 @@
         <v>569</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>107</v>
@@ -18779,7 +18857,7 @@
         <v>569</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>107</v>
@@ -18831,7 +18909,7 @@
         <v>569</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>108</v>
@@ -18883,7 +18961,7 @@
         <v>569</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>108</v>
@@ -18935,7 +19013,7 @@
         <v>569</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>109</v>
@@ -18987,7 +19065,7 @@
         <v>569</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>107</v>
@@ -19039,7 +19117,7 @@
         <v>569</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>108</v>
@@ -19091,7 +19169,7 @@
         <v>569</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>109</v>
@@ -19193,7 +19271,7 @@
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19232,7 +19310,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -21890,7 +21968,7 @@
   <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21929,7 +22007,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -22115,7 +22193,7 @@
         <v>167</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -22144,7 +22222,7 @@
         <v>168</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -22173,7 +22251,7 @@
         <v>169</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -22888,7 +22966,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22927,7 +23005,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -23021,7 +23099,7 @@
         <v>139</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -23071,7 +23149,7 @@
         <v>164</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -23100,7 +23178,7 @@
         <v>187</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -23385,7 +23463,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23424,7 +23502,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -23870,7 +23948,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -24274,10 +24352,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74763329-2DDA-401D-AB2E-963E1F14EBFF}">
   <sheetPr codeName="Plan20"/>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24316,7 +24394,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -24335,7 +24413,7 @@
       <c r="C2" s="46">
         <v>1</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="49" t="s">
         <v>193</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -24356,7 +24434,7 @@
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
-      <c r="D3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="2" t="s">
         <v>195</v>
       </c>
@@ -24375,7 +24453,7 @@
       <c r="A4" s="47"/>
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
-      <c r="D4" s="56"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="2" t="s">
         <v>196</v>
       </c>
@@ -24394,7 +24472,7 @@
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
-      <c r="D5" s="56"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="2" t="s">
         <v>197</v>
       </c>
@@ -24413,7 +24491,7 @@
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -24434,7 +24512,7 @@
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
-      <c r="D7" s="56"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="2" t="s">
         <v>195</v>
       </c>
@@ -24453,7 +24531,7 @@
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
-      <c r="D8" s="56"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="2" t="s">
         <v>196</v>
       </c>
@@ -24472,7 +24550,7 @@
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
-      <c r="D9" s="56"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="2" t="s">
         <v>197</v>
       </c>
@@ -24520,7 +24598,7 @@
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -24541,7 +24619,7 @@
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
-      <c r="D12" s="57"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="2" t="s">
         <v>198</v>
       </c>
@@ -24591,7 +24669,7 @@
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -24612,7 +24690,7 @@
       <c r="A15" s="47"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
-      <c r="D15" s="57"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="2" t="s">
         <v>198</v>
       </c>
@@ -24693,7 +24771,7 @@
       <c r="C18" s="46">
         <v>1</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -24716,7 +24794,7 @@
       <c r="A19" s="47"/>
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
-      <c r="D19" s="56"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="2" t="s">
         <v>195</v>
       </c>
@@ -24737,7 +24815,7 @@
       <c r="A20" s="47"/>
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
-      <c r="D20" s="56"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="2" t="s">
         <v>196</v>
       </c>
@@ -24758,7 +24836,7 @@
       <c r="A21" s="47"/>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
-      <c r="D21" s="56"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="2" t="s">
         <v>197</v>
       </c>
@@ -24779,7 +24857,7 @@
       <c r="A22" s="48"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
-      <c r="D22" s="57"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="2" t="s">
         <v>198</v>
       </c>
@@ -24806,7 +24884,7 @@
       <c r="C23" s="46">
         <v>1</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -24829,7 +24907,7 @@
       <c r="A24" s="47"/>
       <c r="B24" s="47"/>
       <c r="C24" s="47"/>
-      <c r="D24" s="56"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="2" t="s">
         <v>195</v>
       </c>
@@ -24850,7 +24928,7 @@
       <c r="A25" s="47"/>
       <c r="B25" s="47"/>
       <c r="C25" s="47"/>
-      <c r="D25" s="56"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="2" t="s">
         <v>196</v>
       </c>
@@ -24871,7 +24949,7 @@
       <c r="A26" s="47"/>
       <c r="B26" s="47"/>
       <c r="C26" s="47"/>
-      <c r="D26" s="56"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="2" t="s">
         <v>197</v>
       </c>
@@ -24892,7 +24970,7 @@
       <c r="A27" s="48"/>
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
-      <c r="D27" s="57"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="2" t="s">
         <v>198</v>
       </c>
@@ -24919,7 +24997,7 @@
       <c r="C28" s="46">
         <v>1</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -24942,7 +25020,7 @@
       <c r="A29" s="47"/>
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
-      <c r="D29" s="56"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="2" t="s">
         <v>195</v>
       </c>
@@ -24963,7 +25041,7 @@
       <c r="A30" s="47"/>
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
-      <c r="D30" s="56"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="2" t="s">
         <v>196</v>
       </c>
@@ -24984,7 +25062,7 @@
       <c r="A31" s="47"/>
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
-      <c r="D31" s="56"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="2" t="s">
         <v>197</v>
       </c>
@@ -25005,7 +25083,7 @@
       <c r="A32" s="48"/>
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
-      <c r="D32" s="57"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="2" t="s">
         <v>198</v>
       </c>
@@ -25024,15 +25102,15 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
-        <v>486</v>
+        <v>833</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C33" s="46">
         <v>1</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -25045,17 +25123,17 @@
         <v>570</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>256</v>
+        <v>837</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>244</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
-      <c r="D34" s="57"/>
+      <c r="D34" s="50"/>
       <c r="E34" s="2" t="s">
         <v>198</v>
       </c>
@@ -25066,23 +25144,23 @@
         <v>103</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>646</v>
+        <v>838</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>244</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
-        <v>487</v>
+        <v>834</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C35" s="46">
         <v>1</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -25095,17 +25173,17 @@
         <v>570</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>256</v>
+        <v>837</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>245</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="48"/>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
-      <c r="D36" s="57"/>
+      <c r="D36" s="50"/>
       <c r="E36" s="2" t="s">
         <v>198</v>
       </c>
@@ -25116,24 +25194,24 @@
         <v>103</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>646</v>
+        <v>838</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>245</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="46" t="s">
-        <v>488</v>
+        <v>834</v>
       </c>
       <c r="B37" s="46" t="s">
         <v>215</v>
       </c>
       <c r="C37" s="46">
-        <v>1</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>193</v>
+        <v>2</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>203</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>194</v>
@@ -25142,22 +25220,22 @@
         <v>11</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>103</v>
+        <v>570</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>246</v>
+        <v>839</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>107</v>
+        <v>841</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="56"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="50"/>
       <c r="E38" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>11</v>
@@ -25166,40 +25244,48 @@
         <v>103</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>247</v>
+        <v>840</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>107</v>
+        <v>841</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="56"/>
+      <c r="A39" s="46" t="s">
+        <v>835</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="46">
+        <v>1</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>203</v>
+      </c>
       <c r="E39" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>103</v>
+        <v>570</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>248</v>
+        <v>842</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>107</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="56"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="50"/>
       <c r="E40" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>11</v>
@@ -25208,84 +25294,98 @@
         <v>103</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>249</v>
+        <v>843</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>107</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="57"/>
+      <c r="A41" s="46" t="s">
+        <v>836</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" s="46">
+        <v>1</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>203</v>
+      </c>
       <c r="E41" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="48"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="3" t="s">
+      <c r="F42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="55" t="s">
+      <c r="H42" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="46" t="s">
+        <v>486</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="46">
+        <v>1</v>
+      </c>
+      <c r="D43" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="F43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="H43" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>107</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="56"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="50"/>
       <c r="E44" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>11</v>
@@ -25294,38 +25394,46 @@
         <v>103</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>253</v>
+        <v>646</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>107</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="56"/>
+      <c r="A45" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="46">
+        <v>1</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>203</v>
+      </c>
       <c r="E45" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>103</v>
+        <v>570</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>107</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="48"/>
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
-      <c r="D46" s="57"/>
+      <c r="D46" s="50"/>
       <c r="E46" s="2" t="s">
         <v>198</v>
       </c>
@@ -25336,15 +25444,15 @@
         <v>103</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>255</v>
+        <v>646</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>107</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="46" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B47" s="46" t="s">
         <v>215</v>
@@ -25352,7 +25460,7 @@
       <c r="C47" s="46">
         <v>1</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="49" t="s">
         <v>193</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -25368,14 +25476,14 @@
         <v>246</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
       <c r="B48" s="47"/>
       <c r="C48" s="47"/>
-      <c r="D48" s="56"/>
+      <c r="D48" s="57"/>
       <c r="E48" s="2" t="s">
         <v>195</v>
       </c>
@@ -25389,14 +25497,14 @@
         <v>247</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="47"/>
       <c r="B49" s="47"/>
       <c r="C49" s="47"/>
-      <c r="D49" s="56"/>
+      <c r="D49" s="57"/>
       <c r="E49" s="2" t="s">
         <v>196</v>
       </c>
@@ -25410,14 +25518,14 @@
         <v>248</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="47"/>
       <c r="B50" s="47"/>
       <c r="C50" s="47"/>
-      <c r="D50" s="56"/>
+      <c r="D50" s="57"/>
       <c r="E50" s="2" t="s">
         <v>197</v>
       </c>
@@ -25431,14 +25539,14 @@
         <v>249</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="47"/>
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
-      <c r="D51" s="57"/>
+      <c r="D51" s="50"/>
       <c r="E51" s="2" t="s">
         <v>198</v>
       </c>
@@ -25452,14 +25560,14 @@
         <v>250</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="47"/>
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
-      <c r="D52" s="55" t="s">
+      <c r="D52" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -25475,14 +25583,14 @@
         <v>251</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="47"/>
       <c r="B53" s="47"/>
       <c r="C53" s="47"/>
-      <c r="D53" s="56"/>
+      <c r="D53" s="57"/>
       <c r="E53" s="2" t="s">
         <v>195</v>
       </c>
@@ -25496,14 +25604,14 @@
         <v>252</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="47"/>
       <c r="B54" s="47"/>
       <c r="C54" s="47"/>
-      <c r="D54" s="56"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="2" t="s">
         <v>196</v>
       </c>
@@ -25517,14 +25625,14 @@
         <v>253</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="47"/>
       <c r="B55" s="47"/>
       <c r="C55" s="47"/>
-      <c r="D55" s="56"/>
+      <c r="D55" s="57"/>
       <c r="E55" s="2" t="s">
         <v>197</v>
       </c>
@@ -25538,14 +25646,14 @@
         <v>254</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
-      <c r="D56" s="57"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="2" t="s">
         <v>198</v>
       </c>
@@ -25559,12 +25667,12 @@
         <v>255</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="46" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B57" s="46" t="s">
         <v>215</v>
@@ -25572,7 +25680,7 @@
       <c r="C57" s="46">
         <v>1</v>
       </c>
-      <c r="D57" s="55" t="s">
+      <c r="D57" s="49" t="s">
         <v>193</v>
       </c>
       <c r="E57" s="2" t="s">
@@ -25588,14 +25696,14 @@
         <v>246</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="47"/>
       <c r="B58" s="47"/>
       <c r="C58" s="47"/>
-      <c r="D58" s="56"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="2" t="s">
         <v>195</v>
       </c>
@@ -25609,14 +25717,14 @@
         <v>247</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="47"/>
       <c r="B59" s="47"/>
       <c r="C59" s="47"/>
-      <c r="D59" s="56"/>
+      <c r="D59" s="57"/>
       <c r="E59" s="2" t="s">
         <v>196</v>
       </c>
@@ -25630,14 +25738,14 @@
         <v>248</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="47"/>
       <c r="B60" s="47"/>
       <c r="C60" s="47"/>
-      <c r="D60" s="56"/>
+      <c r="D60" s="57"/>
       <c r="E60" s="2" t="s">
         <v>197</v>
       </c>
@@ -25651,14 +25759,14 @@
         <v>249</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="47"/>
       <c r="B61" s="47"/>
       <c r="C61" s="47"/>
-      <c r="D61" s="57"/>
+      <c r="D61" s="50"/>
       <c r="E61" s="2" t="s">
         <v>198</v>
       </c>
@@ -25672,14 +25780,14 @@
         <v>250</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="47"/>
       <c r="B62" s="47"/>
       <c r="C62" s="47"/>
-      <c r="D62" s="55" t="s">
+      <c r="D62" s="49" t="s">
         <v>203</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -25695,14 +25803,14 @@
         <v>251</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="47"/>
       <c r="B63" s="47"/>
       <c r="C63" s="47"/>
-      <c r="D63" s="56"/>
+      <c r="D63" s="57"/>
       <c r="E63" s="2" t="s">
         <v>195</v>
       </c>
@@ -25716,14 +25824,14 @@
         <v>252</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="47"/>
       <c r="B64" s="47"/>
       <c r="C64" s="47"/>
-      <c r="D64" s="56"/>
+      <c r="D64" s="57"/>
       <c r="E64" s="2" t="s">
         <v>196</v>
       </c>
@@ -25737,14 +25845,14 @@
         <v>253</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="47"/>
       <c r="B65" s="47"/>
       <c r="C65" s="47"/>
-      <c r="D65" s="56"/>
+      <c r="D65" s="57"/>
       <c r="E65" s="2" t="s">
         <v>197</v>
       </c>
@@ -25758,14 +25866,14 @@
         <v>254</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="48"/>
       <c r="B66" s="48"/>
       <c r="C66" s="48"/>
-      <c r="D66" s="57"/>
+      <c r="D66" s="50"/>
       <c r="E66" s="2" t="s">
         <v>198</v>
       </c>
@@ -25779,24 +25887,24 @@
         <v>255</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="46" t="s">
-        <v>574</v>
+        <v>490</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C67" s="46">
         <v>1</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="49" t="s">
         <v>193</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>11</v>
@@ -25805,7 +25913,7 @@
         <v>103</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>109</v>
@@ -25815,20 +25923,18 @@
       <c r="A68" s="47"/>
       <c r="B68" s="47"/>
       <c r="C68" s="47"/>
-      <c r="D68" s="55" t="s">
-        <v>203</v>
-      </c>
+      <c r="D68" s="57"/>
       <c r="E68" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>570</v>
+        <v>103</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>109</v>
@@ -25840,7 +25946,7 @@
       <c r="C69" s="47"/>
       <c r="D69" s="57"/>
       <c r="E69" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>11</v>
@@ -25849,287 +25955,299 @@
         <v>103</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>308</v>
-      </c>
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="57"/>
       <c r="E70" s="2" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>570</v>
+        <v>103</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>742</v>
+        <v>249</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="49" t="s">
+      <c r="A71" s="47"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="47"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="47"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="47"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="47"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="48"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="46" t="s">
+        <v>574</v>
+      </c>
+      <c r="B77" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="C77" s="46">
+        <v>1</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="47"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="47"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="54" t="s">
         <v>573</v>
       </c>
-      <c r="B71" s="49" t="s">
+      <c r="B81" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="C71" s="49">
+      <c r="C81" s="54">
         <v>1</v>
       </c>
-      <c r="D71" s="52" t="s">
+      <c r="D81" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="E71" s="25" t="s">
+      <c r="E81" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="F71" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="26" t="s">
+      <c r="F81" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="26" t="s">
         <v>569</v>
       </c>
-      <c r="H71" s="25" t="s">
+      <c r="H81" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="I71" s="25" t="s">
+      <c r="I81" s="25" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="50"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="25" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="56"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="25" t="s">
         <v>195</v>
-      </c>
-      <c r="F72" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="26"/>
-      <c r="H72" s="25" t="s">
-        <v>581</v>
-      </c>
-      <c r="I72" s="25" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="50"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="F73" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="26"/>
-      <c r="H73" s="25" t="s">
-        <v>581</v>
-      </c>
-      <c r="I73" s="25" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="51"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="F74" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="26"/>
-      <c r="H74" s="25" t="s">
-        <v>581</v>
-      </c>
-      <c r="I74" s="25" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="49" t="s">
-        <v>573</v>
-      </c>
-      <c r="B75" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="C75" s="49">
-        <v>2</v>
-      </c>
-      <c r="D75" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="E75" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="F75" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="26" t="s">
-        <v>569</v>
-      </c>
-      <c r="H75" s="25" t="s">
-        <v>583</v>
-      </c>
-      <c r="I75" s="25" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="50"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="F76" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="26"/>
-      <c r="H76" s="25" t="s">
-        <v>581</v>
-      </c>
-      <c r="I76" s="25" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="50"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="F77" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="26"/>
-      <c r="H77" s="25" t="s">
-        <v>581</v>
-      </c>
-      <c r="I77" s="25" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="51"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="26"/>
-      <c r="H78" s="25" t="s">
-        <v>581</v>
-      </c>
-      <c r="I78" s="25" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="49" t="s">
-        <v>577</v>
-      </c>
-      <c r="B79" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="C79" s="49">
-        <v>1</v>
-      </c>
-      <c r="D79" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="F79" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="26" t="s">
-        <v>569</v>
-      </c>
-      <c r="H79" s="25" t="s">
-        <v>584</v>
-      </c>
-      <c r="I79" s="25" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="50"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="50"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="F80" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="26"/>
-      <c r="H80" s="25" t="s">
-        <v>581</v>
-      </c>
-      <c r="I80" s="25" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="50"/>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="F81" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" s="26"/>
-      <c r="H81" s="25" t="s">
-        <v>581</v>
-      </c>
-      <c r="I81" s="25" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="51"/>
-      <c r="B82" s="51"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="25" t="s">
-        <v>197</v>
       </c>
       <c r="F82" s="25" t="s">
         <v>11</v>
@@ -26139,45 +26257,35 @@
         <v>581</v>
       </c>
       <c r="I82" s="25" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="49" t="s">
-        <v>577</v>
-      </c>
-      <c r="B83" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="C83" s="49">
-        <v>2</v>
-      </c>
-      <c r="D83" s="52" t="s">
-        <v>226</v>
-      </c>
+      <c r="A83" s="56"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="52"/>
       <c r="E83" s="25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F83" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G83" s="26" t="s">
-        <v>569</v>
-      </c>
+      <c r="G83" s="26"/>
       <c r="H83" s="25" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="I83" s="25" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="50"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
+      <c r="A84" s="55"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
       <c r="D84" s="53"/>
       <c r="E84" s="25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F84" s="25" t="s">
         <v>11</v>
@@ -26187,35 +26295,45 @@
         <v>581</v>
       </c>
       <c r="I84" s="25" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="50"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="53"/>
+      <c r="A85" s="54" t="s">
+        <v>573</v>
+      </c>
+      <c r="B85" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="C85" s="54">
+        <v>2</v>
+      </c>
+      <c r="D85" s="51" t="s">
+        <v>226</v>
+      </c>
       <c r="E85" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F85" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G85" s="26"/>
+      <c r="G85" s="26" t="s">
+        <v>569</v>
+      </c>
       <c r="H85" s="25" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="I85" s="25" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="51"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="54"/>
+      <c r="A86" s="56"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="52"/>
       <c r="E86" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F86" s="25" t="s">
         <v>11</v>
@@ -26225,45 +26343,35 @@
         <v>581</v>
       </c>
       <c r="I86" s="25" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="49" t="s">
-        <v>580</v>
-      </c>
-      <c r="B87" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="C87" s="49">
-        <v>1</v>
-      </c>
-      <c r="D87" s="52" t="s">
-        <v>226</v>
-      </c>
+      <c r="A87" s="56"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="52"/>
       <c r="E87" s="25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F87" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G87" s="26" t="s">
-        <v>569</v>
-      </c>
+      <c r="G87" s="26"/>
       <c r="H87" s="25" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I87" s="25" t="s">
-        <v>109</v>
+        <v>576</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="50"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="50"/>
+      <c r="A88" s="55"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="55"/>
       <c r="D88" s="53"/>
       <c r="E88" s="25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F88" s="25" t="s">
         <v>11</v>
@@ -26273,35 +26381,45 @@
         <v>581</v>
       </c>
       <c r="I88" s="25" t="s">
-        <v>109</v>
+        <v>576</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="50"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="53"/>
+      <c r="A89" s="54" t="s">
+        <v>577</v>
+      </c>
+      <c r="B89" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="C89" s="54">
+        <v>1</v>
+      </c>
+      <c r="D89" s="51" t="s">
+        <v>226</v>
+      </c>
       <c r="E89" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F89" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G89" s="26"/>
+      <c r="G89" s="26" t="s">
+        <v>569</v>
+      </c>
       <c r="H89" s="25" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="I89" s="25" t="s">
-        <v>109</v>
+        <v>578</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
-      <c r="B90" s="51"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="54"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="52"/>
       <c r="E90" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F90" s="25" t="s">
         <v>11</v>
@@ -26311,47 +26429,35 @@
         <v>581</v>
       </c>
       <c r="I90" s="25" t="s">
-        <v>109</v>
+        <v>578</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="49" t="s">
-        <v>589</v>
-      </c>
-      <c r="B91" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="C91" s="49">
-        <v>1</v>
-      </c>
-      <c r="D91" s="25" t="s">
-        <v>260</v>
-      </c>
+      <c r="A91" s="56"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="52"/>
       <c r="E91" s="25" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="F91" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G91" s="26" t="s">
-        <v>103</v>
-      </c>
+      <c r="G91" s="26"/>
       <c r="H91" s="25" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="I91" s="25" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="25" t="s">
-        <v>261</v>
-      </c>
+      <c r="A92" s="55"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="53"/>
       <c r="E92" s="25" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
       <c r="F92" s="25" t="s">
         <v>11</v>
@@ -26361,47 +26467,45 @@
         <v>581</v>
       </c>
       <c r="I92" s="25" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="49" t="s">
-        <v>589</v>
-      </c>
-      <c r="B93" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="C93" s="49">
+      <c r="A93" s="54" t="s">
+        <v>577</v>
+      </c>
+      <c r="B93" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="C93" s="54">
         <v>2</v>
       </c>
-      <c r="D93" s="25" t="s">
-        <v>260</v>
+      <c r="D93" s="51" t="s">
+        <v>226</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="F93" s="25" t="s">
         <v>11</v>
       </c>
       <c r="G93" s="26" t="s">
-        <v>103</v>
+        <v>569</v>
       </c>
       <c r="H93" s="25" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="I93" s="25" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
-      <c r="B94" s="51"/>
-      <c r="C94" s="51"/>
-      <c r="D94" s="25" t="s">
-        <v>261</v>
-      </c>
+      <c r="A94" s="56"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="52"/>
       <c r="E94" s="25" t="s">
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="F94" s="25" t="s">
         <v>11</v>
@@ -26411,47 +26515,35 @@
         <v>581</v>
       </c>
       <c r="I94" s="25" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="49" t="s">
-        <v>594</v>
-      </c>
-      <c r="B95" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="C95" s="49">
-        <v>1</v>
-      </c>
-      <c r="D95" s="25" t="s">
-        <v>260</v>
-      </c>
+      <c r="A95" s="56"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="52"/>
       <c r="E95" s="25" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="F95" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G95" s="26" t="s">
-        <v>103</v>
-      </c>
+      <c r="G95" s="26"/>
       <c r="H95" s="25" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="I95" s="25" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
-      <c r="B96" s="51"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="25" t="s">
-        <v>261</v>
-      </c>
+      <c r="A96" s="55"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="53"/>
       <c r="E96" s="25" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
       <c r="F96" s="25" t="s">
         <v>11</v>
@@ -26461,47 +26553,45 @@
         <v>581</v>
       </c>
       <c r="I96" s="25" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="49" t="s">
-        <v>594</v>
-      </c>
-      <c r="B97" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="C97" s="49">
-        <v>2</v>
-      </c>
-      <c r="D97" s="25" t="s">
-        <v>260</v>
+      <c r="A97" s="54" t="s">
+        <v>580</v>
+      </c>
+      <c r="B97" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="C97" s="54">
+        <v>1</v>
+      </c>
+      <c r="D97" s="51" t="s">
+        <v>226</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="F97" s="25" t="s">
         <v>11</v>
       </c>
       <c r="G97" s="26" t="s">
-        <v>103</v>
+        <v>569</v>
       </c>
       <c r="H97" s="25" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="I97" s="25" t="s">
-        <v>592</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="51"/>
-      <c r="B98" s="51"/>
-      <c r="C98" s="51"/>
-      <c r="D98" s="25" t="s">
-        <v>261</v>
-      </c>
+      <c r="A98" s="56"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="52"/>
       <c r="E98" s="25" t="s">
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="F98" s="25" t="s">
         <v>11</v>
@@ -26511,103 +26601,361 @@
         <v>581</v>
       </c>
       <c r="I98" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="56"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="26"/>
+      <c r="H99" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="I99" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="55"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F100" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="26"/>
+      <c r="H100" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="I100" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="54" t="s">
+        <v>589</v>
+      </c>
+      <c r="B101" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="C101" s="54">
+        <v>1</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E101" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H101" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="I101" s="25" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="55"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="55"/>
+      <c r="D102" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="26"/>
+      <c r="H102" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="I102" s="25" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="54" t="s">
+        <v>589</v>
+      </c>
+      <c r="B103" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="C103" s="54">
+        <v>2</v>
+      </c>
+      <c r="D103" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H103" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="I103" s="25" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="55"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="55"/>
+      <c r="D104" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="26"/>
+      <c r="H104" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="I104" s="25" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="54" t="s">
+        <v>594</v>
+      </c>
+      <c r="B105" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="C105" s="54">
+        <v>1</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E105" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H105" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="I105" s="25" t="s">
         <v>592</v>
       </c>
     </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="55"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="55"/>
+      <c r="D106" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="26"/>
+      <c r="H106" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="I106" s="25" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="54" t="s">
+        <v>594</v>
+      </c>
+      <c r="B107" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="C107" s="54">
+        <v>2</v>
+      </c>
+      <c r="D107" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E107" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H107" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="I107" s="25" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="55"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="55"/>
+      <c r="D108" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="E108" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="26"/>
+      <c r="H108" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="I108" s="25" t="s">
+        <v>592</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:I93" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
-  <mergeCells count="84">
+  <autoFilter ref="B1:I103" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <mergeCells count="104">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A47:A56"/>
+    <mergeCell ref="B47:B56"/>
+    <mergeCell ref="C47:C56"/>
+    <mergeCell ref="A67:A76"/>
+    <mergeCell ref="B67:B76"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="C18:C22"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C57:C66"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="A47:A56"/>
-    <mergeCell ref="B47:B56"/>
-    <mergeCell ref="C47:C56"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="C83:C86"/>
-    <mergeCell ref="D83:D86"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C67:C76"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="B57:B66"/>
+    <mergeCell ref="C57:C66"/>
     <mergeCell ref="D57:D61"/>
     <mergeCell ref="D62:D66"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="D18:D22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="D23:D27"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="B37:B46"/>
-    <mergeCell ref="C37:C46"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="C89:C92"/>
     <mergeCell ref="A57:A66"/>
-    <mergeCell ref="B57:B66"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Máximo de caracteres" error="Insira no máximo 8 caracteres" promptTitle="Prefixo LN" prompt="Até 8 caracteres" sqref="A1 A99:A1048576" xr:uid="{4F78B17C-EFD9-4C6D-B78C-2A5A521471C8}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Máximo de caracteres" error="Insira no máximo 8 caracteres" promptTitle="Prefixo LN" prompt="Até 8 caracteres" sqref="A1 A109:A1048576" xr:uid="{4F78B17C-EFD9-4C6D-B78C-2A5A521471C8}">
       <formula1>0</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G98" xr:uid="{8D7B5B95-7E5C-4DFD-9E31-C15FE8E47452}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G108" xr:uid="{8D7B5B95-7E5C-4DFD-9E31-C15FE8E47452}">
       <formula1>"GOOSE,Trip-GOOSE,Est-GOOSE,SV,Report,Pooling"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26664,7 +27012,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
